--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0100 (Wheel Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0100 (Wheel Assembly).xlsx
@@ -10,14 +10,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="BOM" sheetId="8" r:id="rId2"/>
     <sheet name="WT A0100" sheetId="1" r:id="rId3"/>
-    <sheet name="WT Part 1" sheetId="2" r:id="rId4"/>
-    <sheet name="WT Drawing Part 1" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_____________uni2">#REF!</definedName>
@@ -48,19 +46,6 @@
     <definedName name="bgtrvfcd">#REF!</definedName>
     <definedName name="bgtvfc">#REF!</definedName>
     <definedName name="bgvfcd">#REF!</definedName>
-    <definedName name="BR_01001">'WT Part 1'!$B$6</definedName>
-    <definedName name="BR_01001_f">'WT Part 1'!$J$27</definedName>
-    <definedName name="BR_01001_m">'WT Part 1'!$N$12</definedName>
-    <definedName name="BR_01001_p">'WT Part 1'!$I$21</definedName>
-    <definedName name="BR_01001_q">'WT Part 1'!$N$3</definedName>
-    <definedName name="BR_01001_t">'WT Part 1'!$I$32</definedName>
-    <definedName name="BR_A0001">'WT A0100'!$B$5</definedName>
-    <definedName name="BR_A0001_f">'WT A0100'!$J$43</definedName>
-    <definedName name="BR_A0001_m">'WT A0100'!$N$24</definedName>
-    <definedName name="BR_A0001_p">'WT A0100'!$I$33</definedName>
-    <definedName name="BR_A0001_pa">'WT A0100'!$E$16</definedName>
-    <definedName name="BR_A0001_q">'WT A0100'!$N$3</definedName>
-    <definedName name="BR_A0001_t">'WT A0100'!$I$48</definedName>
     <definedName name="btgrvf">#REF!</definedName>
     <definedName name="btvfcds">#REF!</definedName>
     <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
@@ -68,41 +53,11 @@
     <definedName name="CompCode" localSheetId="1">BOM!$B$2</definedName>
     <definedName name="CompCode">#REF!</definedName>
     <definedName name="cwlkvclwekjc">#REF!</definedName>
-    <definedName name="dBR_01001">'WT Drawing Part 1'!$B$1</definedName>
+    <definedName name="dBR_01001">#REF!</definedName>
     <definedName name="dede">#REF!</definedName>
-    <definedName name="dEL_01001">'WT Drawing Part 1'!$B$1</definedName>
+    <definedName name="dEL_01001">#REF!</definedName>
     <definedName name="dqwdqd">#REF!</definedName>
     <definedName name="eded">#REF!</definedName>
-    <definedName name="EL_01001">'WT Part 1'!$B$6</definedName>
-    <definedName name="EL_01001_f">'WT Part 1'!$J$27</definedName>
-    <definedName name="EL_01001_m">'WT Part 1'!$N$12</definedName>
-    <definedName name="EL_01001_p">'WT Part 1'!$I$21</definedName>
-    <definedName name="EL_01001_q">'WT Part 1'!$N$3</definedName>
-    <definedName name="EL_01001_t">'WT Part 1'!$I$32</definedName>
-    <definedName name="EL_02001">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_f">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_m">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_p">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_q">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02001_t">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_f">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_m">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_p">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_q">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_02002_t">'WT Part 1'!#REF!</definedName>
-    <definedName name="EL_A0001">'WT A0100'!$B$5</definedName>
-    <definedName name="EL_A0001_f">'WT A0100'!$J$43</definedName>
-    <definedName name="El_A0001_m">'WT A0100'!$N$24</definedName>
-    <definedName name="EL_A0001_p">'WT A0100'!$I$33</definedName>
-    <definedName name="EL_A0001_q">'WT A0100'!$N$3</definedName>
-    <definedName name="EL_A0001_t">'WT A0100'!$I$48</definedName>
-    <definedName name="EL_A0002">'WT A0100'!#REF!</definedName>
-    <definedName name="EL_A0002_f">'WT A0100'!#REF!</definedName>
-    <definedName name="EL_A0002_m">'WT A0100'!#REF!</definedName>
-    <definedName name="EL_A0002_p">'WT A0100'!#REF!</definedName>
-    <definedName name="EL_A0002_q">'WT A0100'!#REF!</definedName>
-    <definedName name="EL_A0002_t">'WT A0100'!#REF!</definedName>
     <definedName name="er">#REF!</definedName>
     <definedName name="ervcdx">#REF!</definedName>
     <definedName name="ezfdscx">#REF!</definedName>
@@ -145,6 +100,11 @@
     <definedName name="vfcdsx">#REF!</definedName>
     <definedName name="vfdcx">#REF!</definedName>
     <definedName name="vredcs">#REF!</definedName>
+    <definedName name="WT_A0100">'WT A0100'!$B$5</definedName>
+    <definedName name="WT_A0100_f">'WT A0100'!$J$24</definedName>
+    <definedName name="WT_A0100_m">'WT A0100'!$N$15</definedName>
+    <definedName name="WT_A0100_p">'WT A0100'!$I$20</definedName>
+    <definedName name="WT_A0100_q">'WT A0100'!$N$3</definedName>
     <definedName name="yjhtrefz">#REF!</definedName>
     <definedName name="zaed">#REF!</definedName>
     <definedName name="zefds">#REF!</definedName>
@@ -153,12 +113,12 @@
     <definedName name="zer">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="139">
   <si>
     <t>University</t>
   </si>
@@ -205,21 +165,12 @@
     <t>ItemOrder</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Part Cost</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Sub Total</t>
   </si>
   <si>
-    <t>lignes vides à supprimer si non utilisées</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -253,27 +204,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Unobtanium (per kg)</t>
-  </si>
-  <si>
-    <t>Optional Text</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Bar 50mm Square</t>
-  </si>
-  <si>
-    <t>Steel, Mild (per kg)</t>
-  </si>
-  <si>
-    <t>Stock material for some part</t>
-  </si>
-  <si>
-    <t>circle area</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -286,96 +216,18 @@
     <t>Mult. Val.</t>
   </si>
   <si>
-    <t>Process 1</t>
-  </si>
-  <si>
-    <t>Describe process briefly</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
-    <t>Process 2</t>
-  </si>
-  <si>
-    <t>Example : Assemble part 1 on part 2</t>
-  </si>
-  <si>
-    <t>Process 3 (example : Ratchet)</t>
-  </si>
-  <si>
-    <t>Example : Tighten bolts</t>
-  </si>
-  <si>
     <t>Fastener</t>
   </si>
   <si>
-    <t>Bolt,Grade 8.8 (SAE)</t>
-  </si>
-  <si>
-    <t>Example : bolt Part 1 on Part 2</t>
-  </si>
-  <si>
-    <t>Washer, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Nut, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Retaining Ring, External</t>
-  </si>
-  <si>
-    <t>Tooling</t>
-  </si>
-  <si>
-    <t>PVF</t>
-  </si>
-  <si>
-    <t>FractionIncluded</t>
-  </si>
-  <si>
-    <t>Welds - Welding Fixture</t>
-  </si>
-  <si>
-    <t>Exemple de Tooling</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
     <t>Ecole Centrale de Lyon</t>
   </si>
   <si>
-    <t>Part 1</t>
-  </si>
-  <si>
-    <t>Cast Iron (per kg)</t>
-  </si>
-  <si>
-    <t>Stock material for part</t>
-  </si>
-  <si>
-    <t>Machining Setup, Install and remove</t>
-  </si>
-  <si>
-    <t>Setup for laser cutting</t>
-  </si>
-  <si>
-    <t>Laser Cut</t>
-  </si>
-  <si>
-    <t>Cutout shape</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>Material - Cast Iron</t>
-  </si>
-  <si>
-    <t>FracIncld</t>
-  </si>
-  <si>
     <t>Total Vehicle Cost</t>
   </si>
   <si>
@@ -385,9 +237,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>The cost of assemlies on this chart should not include the cost of the parts in the assembly but only the materials, processes, fasteners and tooling in the assembly level.</t>
-  </si>
-  <si>
     <t>Line Num.</t>
   </si>
   <si>
@@ -509,12 +358,6 @@
   </si>
   <si>
     <t>Mettre un lien vers la part en question sur le nom de cette dernière</t>
-  </si>
-  <si>
-    <t>Drawing part :</t>
-  </si>
-  <si>
-    <t>Drawing</t>
   </si>
   <si>
     <t>Etape 7</t>
@@ -608,9 +451,6 @@
     <t>Remplir la quantité, Material, Process, Fastener, Tooling. Dans le cas où une table n'est pas concernée (elle est restée vide), la supprimer complètement.</t>
   </si>
   <si>
-    <t>Description brève de la pièce</t>
-  </si>
-  <si>
     <t>Renommer la cellule avec le nouveau lien d_code_de_la_part, ex dBR_01001</t>
   </si>
   <si>
@@ -693,9 +533,6 @@
     <t>Wheels &amp; Tires</t>
   </si>
   <si>
-    <t>WT 01001</t>
-  </si>
-  <si>
     <t>Wheel Assembly</t>
   </si>
   <si>
@@ -703,27 +540,60 @@
   </si>
   <si>
     <t>Complete Wheel Assembly</t>
+  </si>
+  <si>
+    <t>Wheel, 13", 1 Piece OZ, Aluminum</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Tire, Hoosier, R25B, 13"-20.5 x 7.0</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>Valve Stem (and Tire Inflation)</t>
+  </si>
+  <si>
+    <t>Wheel Weights (and Balancing)</t>
+  </si>
+  <si>
+    <t>Balancing and set up the wheel</t>
+  </si>
+  <si>
+    <t>Assemble, 5kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Fix Wheel on Hubs</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Tighten Lug Nuts</t>
+  </si>
+  <si>
+    <t>Nut, Lug</t>
+  </si>
+  <si>
+    <t>The cost of assemblies on this chart should not include the cost of the parts in the assembly but only the materials, processes, fasteners and tooling in the assembly level.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="12">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+  <numFmts count="6">
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
     <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -754,14 +624,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -889,8 +751,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,12 +807,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FFCC"/>
-        <bgColor rgb="FFFAC090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF33CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -951,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -975,17 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -995,28 +851,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1224,21 +1058,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1266,362 +1085,240 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="12" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="18" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="18" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="18" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Cost_Green" xfId="4"/>
     <cellStyle name="Currency 2" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
+    <cellStyle name="Milliers 2" xfId="9"/>
     <cellStyle name="Monétaire 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal_Sheet1" xfId="10"/>
     <cellStyle name="TableStyleLight1" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1716,24 +1413,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76147</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142118</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>126675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1161881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="dEL_010001">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78E01EE-D5C9-4656-995C-562BE1FCA0F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,15 +1438,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="304800"/>
-          <a:ext cx="2971746" cy="4218818"/>
+          <a:off x="11747500" y="3759200"/>
+          <a:ext cx="3009575" cy="2927181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,342 +1790,342 @@
   </sheetPr>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>160</v>
+      <c r="A1" s="62" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>92</v>
+      <c r="A3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
-        <v>123</v>
+      <c r="A10" s="60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="116"/>
+      <c r="A18" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="60"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="116" t="s">
-        <v>99</v>
+      <c r="A23" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="116" t="s">
-        <v>123</v>
+      <c r="A31" s="60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="116" t="s">
-        <v>97</v>
+      <c r="A39" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="116" t="s">
-        <v>120</v>
+      <c r="A45" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="116" t="s">
-        <v>104</v>
+      <c r="A57" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="116" t="s">
-        <v>108</v>
+      <c r="A63" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="116" t="s">
-        <v>125</v>
+      <c r="A80" s="60" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
-        <v>131</v>
+      <c r="A82" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2439,12 +2141,12 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2454,7 +2156,7 @@
     <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="30" customWidth="1"/>
     <col min="7" max="7" width="14" style="9" customWidth="1"/>
     <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="10.42578125" style="6" customWidth="1"/>
@@ -2464,501 +2166,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="M1" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="64" t="e">
+      <c r="B1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="M1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="122" t="s">
-        <v>158</v>
+      <c r="A2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="F2" s="48"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="63">
+      <c r="A3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="41">
         <v>2018</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="F3" s="48"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:15" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4" s="63">
         <v>81</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:15" s="46" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:15" s="44" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>89</v>
+      <c r="D4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" s="22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145" t="str">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73" t="str">
         <f>'WT A0100'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C7" s="146" t="str">
+      <c r="C7" s="74" t="e">
         <f>EL_A0001</f>
-        <v>WT A0100</v>
-      </c>
-      <c r="D7" s="146" t="s">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147" t="str">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75" t="str">
         <f>'WT A0100'!B4</f>
         <v>Wheel Assembly</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="148">
-        <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
-        <v>183.86978594062498</v>
-      </c>
-      <c r="I7" s="149">
-        <f>BR_A0001_q</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="150">
-        <f>BR_A0001_m</f>
-        <v>176.88978594062499</v>
-      </c>
-      <c r="K7" s="150">
-        <f>BR_A0001_p</f>
-        <v>1.32</v>
-      </c>
-      <c r="L7" s="150">
-        <f>BR_A0001_f</f>
-        <v>0.66</v>
-      </c>
-      <c r="M7" s="150">
-        <f>BR_A0001_t</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="151">
-        <f t="shared" ref="N7:N17" si="1">H7*I7</f>
-        <v>183.86978594062498</v>
-      </c>
-      <c r="O7" s="152"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="76">
+        <f>SUM(J7:M7)</f>
+        <v>175.23</v>
+      </c>
+      <c r="I7" s="77">
+        <f>WT_A0100_q</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="78">
+        <f>WT_A0100_m</f>
+        <v>170</v>
+      </c>
+      <c r="K7" s="78">
+        <f>WT_A0100_p</f>
+        <v>3.63</v>
+      </c>
+      <c r="L7" s="78">
+        <f>WT_A0100_f</f>
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79">
+        <f>H7*I7</f>
+        <v>700.92</v>
+      </c>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154" t="str">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82" t="str">
         <f>'WT A0100'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C8" s="162" t="str">
-        <f>EL_01001</f>
-        <v>WT 01001</v>
-      </c>
-      <c r="D8" s="155" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="155" t="str">
-        <f>F7</f>
-        <v>Wheel Assembly</v>
-      </c>
-      <c r="F8" s="156" t="str">
-        <f>'WT Part 1'!B5</f>
-        <v>Part 1</v>
-      </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="157">
-        <f t="shared" si="0"/>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="I8" s="158">
-        <f>BR_A0001_q*BR_01001_q</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="159">
-        <f>BR_01001_m</f>
-        <v>1.3309329600000002</v>
-      </c>
-      <c r="K8" s="159">
-        <f>BR_01001_p</f>
-        <v>4.6972825</v>
-      </c>
-      <c r="L8" s="159">
-        <f>BR_01001_f</f>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="85">
+        <f>SUM(J8:M8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="159">
-        <f>BR_01001_t</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N8" s="160">
-        <f t="shared" si="1"/>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="O8" s="161"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88">
+        <f>H8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154" t="str">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="157">
+      <c r="E9" s="83"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="85">
+        <f t="shared" ref="H7:H17" si="0">SUM(J9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="91"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="88">
+        <f t="shared" ref="N7:N17" si="1">H9*I9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="89"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82" t="str">
+        <f>'WT A0100'!$B$3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160">
+      <c r="I10" s="91"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="161"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154" t="str">
+      <c r="O10" s="89"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="157">
+      <c r="E11" s="83"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="160">
+      <c r="I11" s="91"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="161"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154" t="str">
+      <c r="O11" s="89"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="157">
+      <c r="E12" s="83"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="163"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="160">
+      <c r="I12" s="91"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="161"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="153"/>
-      <c r="B12" s="154" t="str">
+      <c r="O12" s="89"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="157">
+      <c r="E13" s="83"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="160">
+      <c r="I13" s="91"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="161"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="153"/>
-      <c r="B13" s="154" t="str">
+      <c r="O13" s="89"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="157">
+      <c r="E14" s="83"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="160">
+      <c r="I14" s="91"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="161"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="153"/>
-      <c r="B14" s="154" t="str">
+      <c r="O14" s="89"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="157">
+      <c r="E15" s="83"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="163"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="160">
+      <c r="I15" s="91"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="161"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154" t="str">
+      <c r="O15" s="89"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="157">
+      <c r="E16" s="83"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="160">
+      <c r="I16" s="91"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="161"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="153"/>
-      <c r="B16" s="154" t="str">
+      <c r="O16" s="89"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="82" t="str">
         <f>'WT A0100'!$B$3</f>
         <v>Wheels &amp; Tires</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155" t="s">
+      <c r="C17" s="83"/>
+      <c r="D17" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="157">
+      <c r="E17" s="83"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="160">
+      <c r="I17" s="91"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="161"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154" t="str">
-        <f>'WT A0100'!$B$3</f>
-        <v>Wheels &amp; Tires</v>
-      </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="155"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="163"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="160">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="161"/>
+      <c r="O17" s="89"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="51" t="str">
+      <c r="B18" s="29" t="str">
         <f>'WT A0100'!B3</f>
         <v>Wheels &amp; Tires</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="51" t="s">
-        <v>90</v>
+      <c r="F18" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="125">
+      <c r="J18" s="67">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
-        <v>178.220718900625</v>
-      </c>
-      <c r="K18" s="125">
+        <v>680</v>
+      </c>
+      <c r="K18" s="67">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
-        <v>6.0172825000000003</v>
-      </c>
-      <c r="L18" s="125">
+        <v>14.52</v>
+      </c>
+      <c r="L18" s="67">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
-        <v>0.66</v>
-      </c>
-      <c r="M18" s="125">
+        <v>6.4</v>
+      </c>
+      <c r="M18" s="67">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="N18" s="125">
+        <v>0</v>
+      </c>
+      <c r="N18" s="67">
         <f>SUM(N7:N17)</f>
-        <v>190.73133473395831</v>
+        <v>700.92</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="52"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -2974,7 +2652,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="52"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3014,7 +2692,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="55"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
@@ -3042,7 +2720,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="55"/>
+      <c r="N24" s="33"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
@@ -3383,7 +3061,7 @@
     <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="11"/>
-      <c r="F49" s="52"/>
+      <c r="F49" s="30"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3393,7 +3071,7 @@
     <row r="50" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="11"/>
-      <c r="F50" s="52"/>
+      <c r="F50" s="30"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3403,7 +3081,7 @@
     <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="11"/>
-      <c r="F51" s="52"/>
+      <c r="F51" s="30"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3413,7 +3091,7 @@
     <row r="52" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="11"/>
-      <c r="F52" s="52"/>
+      <c r="F52" s="30"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3423,7 +3101,7 @@
     <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="11"/>
-      <c r="F53" s="52"/>
+      <c r="F53" s="30"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3433,7 +3111,7 @@
     <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="11"/>
-      <c r="F54" s="52"/>
+      <c r="F54" s="30"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3443,7 +3121,7 @@
     <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="11"/>
-      <c r="F55" s="52"/>
+      <c r="F55" s="30"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -3453,7 +3131,7 @@
     <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="11"/>
-      <c r="F56" s="52"/>
+      <c r="F56" s="30"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3463,7 +3141,7 @@
     <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="11"/>
-      <c r="F57" s="52"/>
+      <c r="F57" s="30"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3473,7 +3151,7 @@
     <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="11"/>
-      <c r="F58" s="52"/>
+      <c r="F58" s="30"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3486,7 +3164,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="52"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
@@ -3502,7 +3180,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="52"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
@@ -3518,7 +3196,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="52"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
@@ -3534,7 +3212,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="52"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
@@ -3550,7 +3228,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="52"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
@@ -3566,7 +3244,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="52"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="6"/>
@@ -3582,7 +3260,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="52"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="6"/>
@@ -3598,7 +3276,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="52"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="6"/>
@@ -3614,7 +3292,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="52"/>
+      <c r="F67" s="30"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="6"/>
@@ -3630,7 +3308,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="52"/>
+      <c r="F68" s="30"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
@@ -3646,7 +3324,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="52"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
@@ -3662,7 +3340,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="52"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
@@ -3678,7 +3356,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="52"/>
+      <c r="F71" s="30"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="6"/>
@@ -3694,7 +3372,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="52"/>
+      <c r="F72" s="30"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="6"/>
@@ -3710,7 +3388,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="52"/>
+      <c r="F73" s="30"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="6"/>
@@ -3726,7 +3404,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="52"/>
+      <c r="F74" s="30"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="6"/>
@@ -3742,7 +3420,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="52"/>
+      <c r="F75" s="30"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="6"/>
@@ -3758,7 +3436,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="52"/>
+      <c r="F76" s="30"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="6"/>
@@ -3774,7 +3452,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="52"/>
+      <c r="F77" s="30"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="6"/>
@@ -3790,7 +3468,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="52"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="6"/>
@@ -3806,7 +3484,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="52"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="6"/>
@@ -3822,7 +3500,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="52"/>
+      <c r="F80" s="30"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="6"/>
@@ -3838,7 +3516,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="52"/>
+      <c r="F81" s="30"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="6"/>
@@ -3854,7 +3532,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="52"/>
+      <c r="F82" s="30"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="6"/>
@@ -3870,7 +3548,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="52"/>
+      <c r="F83" s="30"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="6"/>
@@ -3886,7 +3564,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="30"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="6"/>
@@ -3902,7 +3580,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="52"/>
+      <c r="F85" s="30"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="6"/>
@@ -3918,7 +3596,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="52"/>
+      <c r="F86" s="30"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="6"/>
@@ -3934,7 +3612,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="52"/>
+      <c r="F87" s="30"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="6"/>
@@ -3950,7 +3628,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="52"/>
+      <c r="F88" s="30"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="6"/>
@@ -3966,7 +3644,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="52"/>
+      <c r="F89" s="30"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="6"/>
@@ -3982,7 +3660,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="52"/>
+      <c r="F90" s="30"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="6"/>
@@ -3998,7 +3676,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="30"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="6"/>
@@ -4014,7 +3692,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="52"/>
+      <c r="F92" s="30"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="6"/>
@@ -4030,7 +3708,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="52"/>
+      <c r="F93" s="30"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6"/>
@@ -4046,7 +3724,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="52"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6"/>
@@ -4062,7 +3740,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="52"/>
+      <c r="F95" s="30"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="6"/>
@@ -4078,7 +3756,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="52"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="6"/>
@@ -4094,7 +3772,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="52"/>
+      <c r="F97" s="30"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="6"/>
@@ -4110,7 +3788,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="52"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="6"/>
@@ -4126,7 +3804,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="52"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="6"/>
@@ -4142,7 +3820,7 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="52"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="6"/>
@@ -4158,7 +3836,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="52"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6"/>
@@ -4174,7 +3852,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="52"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6"/>
@@ -4190,7 +3868,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="52"/>
+      <c r="F103" s="30"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6"/>
@@ -4206,7 +3884,7 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="52"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="6"/>
@@ -4222,7 +3900,7 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="52"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="6"/>
@@ -4238,7 +3916,7 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="52"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="6"/>
@@ -4254,7 +3932,7 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="52"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="6"/>
@@ -4270,7 +3948,7 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="52"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="6"/>
@@ -4286,7 +3964,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="52"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="6"/>
@@ -4302,7 +3980,7 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="52"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="6"/>
@@ -4318,7 +3996,7 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="52"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="6"/>
@@ -4334,7 +4012,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="52"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="6"/>
@@ -4350,7 +4028,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="52"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="6"/>
@@ -4366,7 +4044,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="52"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="6"/>
@@ -4382,7 +4060,7 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="52"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="6"/>
@@ -4398,7 +4076,7 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="52"/>
+      <c r="F116" s="30"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="6"/>
@@ -4414,7 +4092,7 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="52"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="6"/>
@@ -4430,7 +4108,7 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="52"/>
+      <c r="F118" s="30"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="6"/>
@@ -4446,7 +4124,7 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="52"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="6"/>
@@ -4462,7 +4140,7 @@
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="52"/>
+      <c r="F120" s="30"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="6"/>
@@ -4478,7 +4156,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="52"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="6"/>
@@ -4494,7 +4172,7 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="52"/>
+      <c r="F122" s="30"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="6"/>
@@ -4510,7 +4188,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="52"/>
+      <c r="F123" s="30"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="6"/>
@@ -4526,7 +4204,7 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="52"/>
+      <c r="F124" s="30"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="6"/>
@@ -4542,7 +4220,7 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="52"/>
+      <c r="F125" s="30"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="6"/>
@@ -4558,7 +4236,7 @@
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="52"/>
+      <c r="F126" s="30"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="6"/>
@@ -4574,7 +4252,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="52"/>
+      <c r="F127" s="30"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="6"/>
@@ -4590,7 +4268,7 @@
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="52"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="6"/>
@@ -4606,7 +4284,7 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="52"/>
+      <c r="F129" s="30"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="6"/>
@@ -4622,7 +4300,7 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="52"/>
+      <c r="F130" s="30"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="6"/>
@@ -4638,7 +4316,7 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="52"/>
+      <c r="F131" s="30"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="6"/>
@@ -4654,7 +4332,7 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="52"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="6"/>
@@ -4670,7 +4348,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="52"/>
+      <c r="F133" s="30"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="6"/>
@@ -4686,7 +4364,7 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="52"/>
+      <c r="F134" s="30"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="6"/>
@@ -4702,7 +4380,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="52"/>
+      <c r="F135" s="30"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="6"/>
@@ -4718,7 +4396,7 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="52"/>
+      <c r="F136" s="30"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="6"/>
@@ -4734,7 +4412,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="52"/>
+      <c r="F137" s="30"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="6"/>
@@ -4750,7 +4428,7 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="52"/>
+      <c r="F138" s="30"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="6"/>
@@ -4766,7 +4444,7 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="52"/>
+      <c r="F139" s="30"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="6"/>
@@ -4782,7 +4460,7 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="52"/>
+      <c r="F140" s="30"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="6"/>
@@ -4798,7 +4476,7 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="52"/>
+      <c r="F141" s="30"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="6"/>
@@ -4814,7 +4492,7 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="52"/>
+      <c r="F142" s="30"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="6"/>
@@ -4830,7 +4508,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="52"/>
+      <c r="F143" s="30"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="6"/>
@@ -4846,7 +4524,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="52"/>
+      <c r="F144" s="30"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="6"/>
@@ -4862,7 +4540,7 @@
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="52"/>
+      <c r="F145" s="30"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="6"/>
@@ -4878,7 +4556,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="52"/>
+      <c r="F146" s="30"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="6"/>
@@ -4894,7 +4572,7 @@
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="52"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="6"/>
@@ -4910,7 +4588,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="52"/>
+      <c r="F148" s="30"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="6"/>
@@ -4926,7 +4604,7 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="52"/>
+      <c r="F149" s="30"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="6"/>
@@ -4942,7 +4620,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="52"/>
+      <c r="F150" s="30"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="6"/>
@@ -4958,7 +4636,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="52"/>
+      <c r="F151" s="30"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="6"/>
@@ -4974,7 +4652,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="52"/>
+      <c r="F152" s="30"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="6"/>
@@ -4990,7 +4668,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="52"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="6"/>
@@ -5006,7 +4684,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="52"/>
+      <c r="F154" s="30"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="6"/>
@@ -5022,7 +4700,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="52"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="6"/>
@@ -5038,7 +4716,7 @@
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="52"/>
+      <c r="F156" s="30"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="6"/>
@@ -5054,7 +4732,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="52"/>
+      <c r="F157" s="30"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="6"/>
@@ -5070,7 +4748,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="52"/>
+      <c r="F158" s="30"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="6"/>
@@ -5086,7 +4764,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="52"/>
+      <c r="F159" s="30"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="6"/>
@@ -5102,7 +4780,7 @@
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="52"/>
+      <c r="F160" s="30"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="6"/>
@@ -5118,7 +4796,7 @@
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="52"/>
+      <c r="F161" s="30"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="6"/>
@@ -5134,7 +4812,7 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="52"/>
+      <c r="F162" s="30"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="6"/>
@@ -5150,7 +4828,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="52"/>
+      <c r="F163" s="30"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="6"/>
@@ -5166,7 +4844,7 @@
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="52"/>
+      <c r="F164" s="30"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="6"/>
@@ -5196,16 +4874,16 @@
     <tabColor rgb="FF33CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="28"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.5703125"/>
     <col min="4" max="4" width="11.42578125"/>
     <col min="5" max="5" width="13.140625"/>
@@ -5220,2187 +4898,710 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="59">
         <v>81</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="124">
-        <f>BR_A0001_pa+BR_A0001_m+BR_A0001_p+BR_A0001_f+BR_A0001_t</f>
-        <v>190.73133473395831</v>
-      </c>
-      <c r="O2" s="72"/>
+      <c r="N2" s="66">
+        <f>WT_A0100_m+WT_A0100_p+WT_A0100_f</f>
+        <v>175.23</v>
+      </c>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="102">
-        <v>1</v>
-      </c>
-      <c r="O3" s="72"/>
+      <c r="N3" s="58">
+        <v>4</v>
+      </c>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="129" t="s">
+      <c r="B4" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="72"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="129" t="s">
+      <c r="B5" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="128" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="57">
         <f>N2*N3</f>
-        <v>190.73133473395831</v>
-      </c>
-      <c r="O5" s="72"/>
+        <v>700.92</v>
+      </c>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="129" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="72"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="72"/>
+        <v>125</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="72"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B10" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="N10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="128" t="s">
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="93">
+        <v>10</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="95">
+        <v>80</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="99">
+        <v>1</v>
+      </c>
+      <c r="N11" s="100">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>80</v>
+      </c>
+      <c r="O11" s="49"/>
+    </row>
+    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93">
+        <v>20</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="95">
+        <v>85</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="99">
+        <v>1</v>
+      </c>
+      <c r="N12" s="100">
+        <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
+        <v>85</v>
+      </c>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="93">
+        <v>30</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="95">
+        <v>1</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="99">
+        <v>1</v>
+      </c>
+      <c r="N13" s="100">
+        <f>IF(J13="",D13*M13,D13*J13*K13*L13*M13)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="49"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="93">
+        <v>40</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="95">
+        <v>4</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="103">
+        <v>1</v>
+      </c>
+      <c r="N14" s="100">
+        <f>IF(J14="",D14*M14,D14*J14*K14*L14*M14)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="49"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="70">
+        <f>SUM(N11:N14)</f>
+        <v>170</v>
+      </c>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="49"/>
+    </row>
+    <row r="17" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="72"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="D17" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="53"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="93">
         <v>10</v>
       </c>
-      <c r="B10" s="115" t="str">
-        <f>'WT Part 1'!B5</f>
-        <v>Part 1</v>
-      </c>
-      <c r="C10" s="85">
-        <f>'WT Part 1'!N2</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="D10" s="114">
-        <f>'WT Part 1'!N3</f>
+      <c r="B18" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="95">
+        <v>0.63</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="93">
         <v>1</v>
       </c>
-      <c r="E10" s="85">
-        <f>C10*D10</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="72"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="G18" s="93"/>
+      <c r="H18" s="93">
+        <v>1</v>
+      </c>
+      <c r="I18" s="95">
+        <f>D18*F18*H18</f>
+        <v>0.63</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="49"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="93">
         <v>20</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="72"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
-        <v>30</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
-        <v>40</v>
-      </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="75"/>
-    </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86" t="s">
+      <c r="B19" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="95">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="93">
+        <v>4</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93">
+        <v>1</v>
+      </c>
+      <c r="I19" s="95">
+        <f>D19*F19*H19</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="70">
+        <f>SUM(I18:I19)</f>
+        <v>3.63</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="72"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="130">
-        <f>SUM(E10:E15)</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="72"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="72"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="128" t="s">
+      <c r="E22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="F22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="G22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="H22" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="72"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="I22" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="49"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="93">
         <v>10</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="85">
-        <v>100</v>
-      </c>
-      <c r="E19" s="83">
-        <v>50</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="83">
-        <v>50</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="89">
-        <f>G19*E19/1000000</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="K19" s="87">
-        <v>200</v>
-      </c>
-      <c r="L19" s="87">
-        <v>3.5</v>
-      </c>
-      <c r="M19" s="87">
-        <f>J19*K19*L19</f>
-        <v>1.75</v>
-      </c>
-      <c r="N19" s="85">
-        <f>M19*D19</f>
-        <v>175</v>
-      </c>
-      <c r="O19" s="72"/>
-    </row>
-    <row r="20" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
-        <v>20</v>
-      </c>
-      <c r="B20" s="83" t="s">
+      <c r="B23" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="95">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="85">
-        <v>2.25</v>
-      </c>
-      <c r="E20" s="91">
-        <v>165</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="127">
-        <f>(E20*10^-3)^2*3.14/4</f>
-        <v>2.1371625000000002E-2</v>
-      </c>
-      <c r="K20" s="94">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="95">
-        <v>7860</v>
-      </c>
-      <c r="M20" s="96">
-        <f>K20*J20*L20</f>
-        <v>0.83990486250000007</v>
-      </c>
-      <c r="N20" s="85">
-        <f>M20*D20</f>
-        <v>1.8897859406250002</v>
-      </c>
-      <c r="O20" s="77"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="85">
-        <f>M21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="85">
-        <f>M22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="72"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="85">
-        <f>M23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="72"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="107">
+        <v>4</v>
+      </c>
+      <c r="J23" s="95">
+        <f>D23*I23</f>
+        <v>1.6</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="49"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="130">
-        <f>SUM(N19:N23)</f>
-        <v>176.88978594062499</v>
-      </c>
-      <c r="O24" s="72"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="70">
+        <f>SUM(J23:J23)</f>
+        <v>1.6</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="49"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="72"/>
-    </row>
-    <row r="26" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="79"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
-        <v>10</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="85">
-        <v>0.13</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="98">
-        <v>2</v>
-      </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="85">
-        <f t="shared" ref="I27:I32" si="0">IF(H27="",D27*F27,D27*F27*H27)</f>
-        <v>0.26</v>
-      </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="72"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
-        <v>20</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="85">
-        <v>0.06</v>
-      </c>
-      <c r="E28" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="98">
-        <v>1</v>
-      </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="85">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="72"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="83">
-        <v>30</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="98">
-        <v>2</v>
-      </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="85">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="72"/>
-    </row>
-    <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="76"/>
-    </row>
-    <row r="31" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="79"/>
-    </row>
-    <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="76"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="130">
-        <f>SUM(I27:I29)</f>
-        <v>1.32</v>
-      </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="72"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="72"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="72"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="83">
-        <v>10</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="100">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="101">
-        <v>8</v>
-      </c>
-      <c r="F36" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="101">
-        <v>35</v>
-      </c>
-      <c r="H36" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="102">
-        <v>2</v>
-      </c>
-      <c r="J36" s="85">
-        <f>I36*D36</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="72"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
-        <v>20</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="E37" s="83">
-        <v>8</v>
-      </c>
-      <c r="F37" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="102">
-        <v>2</v>
-      </c>
-      <c r="J37" s="85">
-        <f>I37*D37</f>
-        <v>0.02</v>
-      </c>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="72"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="83">
-        <v>30</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="83">
-        <v>12</v>
-      </c>
-      <c r="F38" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="102">
-        <v>12</v>
-      </c>
-      <c r="J38" s="85">
-        <f>I38*D38</f>
-        <v>0.12</v>
-      </c>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="72"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="83">
-        <v>40</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="105">
-        <v>0.04</v>
-      </c>
-      <c r="E39" s="90">
-        <v>12</v>
-      </c>
-      <c r="F39" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="107">
-        <v>6</v>
-      </c>
-      <c r="J39" s="85">
-        <f>I39*D39</f>
-        <v>0.24</v>
-      </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="72"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="72"/>
-    </row>
-    <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="76"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="72"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="130">
-        <f>SUM(J36:J40)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="72"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="72"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
-        <v>10</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="85">
-        <v>500</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="83">
-        <v>30</v>
-      </c>
-      <c r="G46" s="83">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="83">
-        <v>1</v>
-      </c>
-      <c r="I46" s="85">
-        <f>D46*F46/G46*H46</f>
-        <v>5</v>
-      </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="72"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="72"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="133">
-        <f>SUM(I46:I47)</f>
-        <v>5</v>
-      </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="72"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="82"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" location="BR_01001" display="BR_01001"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="49" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
   </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O33"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="33.42578125"/>
-    <col min="3" max="3" width="23"/>
-    <col min="4" max="6" width="10.5703125"/>
-    <col min="7" max="7" width="14.140625"/>
-    <col min="8" max="12" width="10.5703125"/>
-    <col min="13" max="13" width="15.28515625"/>
-    <col min="14" max="14" width="10.5703125"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-    <col min="16" max="1025" width="10.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="108">
-        <v>81</v>
-      </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="85">
-        <f>BR_01001_m+BR_01001_p+BR_01001_f+BR_01001_t</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="O2" s="72"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>'WT A0100'!B3</f>
-        <v>Wheels &amp; Tires</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="102">
-        <v>1</v>
-      </c>
-      <c r="O3" s="72"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="117" t="str">
-        <f>'WT A0100'!B4</f>
-        <v>Wheel Assembly</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="72"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="134" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="85">
-        <f>N3*N2</f>
-        <v>6.8615487933333332</v>
-      </c>
-      <c r="O5" s="72"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="72"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="72"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="72"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="72"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="139" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="72"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>116</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="126">
-        <f>(E11*10^-3)^2*3.14</f>
-        <v>4.2251840000000006E-2</v>
-      </c>
-      <c r="K11" s="25">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="L11" s="35">
-        <v>7000</v>
-      </c>
-      <c r="M11" s="27">
-        <v>1</v>
-      </c>
-      <c r="N11" s="36">
-        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>1.3309329600000002</v>
-      </c>
-      <c r="O11" s="77"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="141">
-        <f>SUM(N11:N11)</f>
-        <v>1.3309329600000002</v>
-      </c>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="72"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="72"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="111">
-        <v>10</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="37">
-        <v>1</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38">
-        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>1.3</v>
-      </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="79"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
-        <v>20</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="39">
-        <v>135.8913</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="36">
-        <f t="shared" si="0"/>
-        <v>3.3972825000000002</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="72"/>
-    </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="76"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="72"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="72"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="72"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="141">
-        <f>SUM(I15:I20)</f>
-        <v>4.6972825</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="72"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="72"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="36">
-        <f>I24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="72"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="36">
-        <f>I25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="72"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="36">
-        <f>I26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="72"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="141">
-        <f>SUM(J24:J26)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="72"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="72"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="72"/>
-    </row>
-    <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
-        <v>10</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="36">
-        <v>500</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="20">
-        <v>5</v>
-      </c>
-      <c r="G30" s="20">
-        <v>3000</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1</v>
-      </c>
-      <c r="I30" s="36">
-        <f>D30*F30/G30*H30</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="76"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="72"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="141">
-        <f>SUM(I30:I31)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="72"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="82"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="dBR_01001" display="Drawing"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="33" max="16383" man="1"/>
-    <brk id="67" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF99FFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="118" t="str">
-        <f>BR_01001</f>
-        <v>WT 01001</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="EL_01001" display="EL_01001"/>
-    <hyperlink ref="A1" location="EL_01001" display="Drawing part :"/>
-    <hyperlink ref="A1:B1" location="BR_01001" display="Drawing part :"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0100 (Wheel Assembly).xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/WT A0100 (Wheel Assembly).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <definedName name="zer">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -586,12 +586,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1089,18 +1089,18 @@
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="3">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1121,11 +1121,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1160,14 +1160,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1196,7 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1209,13 +1209,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1231,18 +1231,18 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,18 +1260,18 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,12 +1292,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1540,23 +1540,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1592,23 +1575,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2141,7 +2107,7 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
@@ -2359,7 +2325,7 @@
       <c r="F9" s="82"/>
       <c r="G9" s="83"/>
       <c r="H9" s="85">
-        <f t="shared" ref="H7:H17" si="0">SUM(J9:M9)</f>
+        <f t="shared" ref="H9:H17" si="0">SUM(J9:M9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="91"/>
@@ -2368,7 +2334,7 @@
       <c r="L9" s="87"/>
       <c r="M9" s="87"/>
       <c r="N9" s="88">
-        <f t="shared" ref="N7:N17" si="1">H9*I9</f>
+        <f t="shared" ref="N9:N17" si="1">H9*I9</f>
         <v>0</v>
       </c>
       <c r="O9" s="89"/>
@@ -4876,8 +4842,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,7 +5111,7 @@
       </c>
       <c r="O10" s="49"/>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -5209,7 +5175,7 @@
       </c>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
         <v>30</v>
       </c>
@@ -5239,7 +5205,7 @@
       </c>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>40</v>
       </c>
